--- a/Crawling/data/shopee_product_shop_combined.xlsx
+++ b/Crawling/data/shopee_product_shop_combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liewz\Documents\GitHub\CZ4034_IR\Crawling\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A55DF2-99B1-4935-A2A4-03F0A22D4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1A9C7F-3112-4251-A9F3-F69FE3AE5C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <t>shop.shop_location</t>
   </si>
   <si>
-    <t>shop.username</t>
+    <t>shop.name</t>
   </si>
   <si>
     <t>https://shopee.sg/For-iPad-10th-Generation-Round-Keycap-Wireless-Keyboard-Leather-Case-with-Built-in-Pen-Slot-Detachable-Magnetic-Keyboard-Soft-Case-For-10.2''-iPad-7th-8th-9th-Gen-10.9''-Air4-Air5-i.109755317.16556809203</t>
@@ -120,7 +120,7 @@
     <t>Overseas</t>
   </si>
   <si>
-    <t>baodan.sg</t>
+    <t>NIXXOS.SG</t>
   </si>
   <si>
     <t>https://shopee.sg/SSD-External-Hard-Disk-M.2-30TB-60TB-128TB-Portable-External-Hard-Disk-4TB-2TB-1TB-Portable-Hard-Drive-USB-3.0-i.915737909.13698127662</t>
@@ -289,7 +289,7 @@
     <t>https://cf.shopee.sg/file/d616dd8aadd3b9eb99e4d5d6a0cdbe4e</t>
   </si>
   <si>
-    <t>hotdogdigital.sg</t>
+    <t>Hot Dog Digital SG</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Local-Multifunction-backpack-Lightweight-Casual-laptop-bagTravel-laptop-bag-School-Bag-waterproof-with-side-pockets-i.223946658.10152719600</t>
@@ -513,7 +513,7 @@
     <t>USB Hubs &amp; Card Readers</t>
   </si>
   <si>
-    <t>chuphone.sg</t>
+    <t>CHUKER digital Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Large-capacity-JanSport-tide-brand-backpack-outdoor-travel-backpack-computer-bag-i.659092716.20715716730</t>
@@ -535,7 +535,7 @@
     <t>https://cf.shopee.sg/file/8c04485fbc83761259c3ac40de49771e</t>
   </si>
   <si>
-    <t>xiaopeng</t>
+    <t>Healy's Grocery Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Thermal-Printer-HPRT-N41-Label-Barcode-Printer-with-Bluetooth-USB-Ultimate-Supply-i.271813511.6967504523</t>
@@ -608,7 +608,7 @@
     <t>Thermal &amp; Barcode Printers</t>
   </si>
   <si>
-    <t>ultimate_supply</t>
+    <t>Ultimate Supply for e-commerce</t>
   </si>
   <si>
     <t>https://shopee.sg/Ultimate-Supply-Printer-Rack-Iron-Rack-With-Double-Layer-Storage-57x38x34cm-Strong-Bearing-i.271813511.9095218627</t>
@@ -681,7 +681,7 @@
     <t>https://cf.shopee.sg/file/124cbd18aab0a8df4710cbc051b83f52</t>
   </si>
   <si>
-    <t>yli9gmaieo</t>
+    <t>zouying</t>
   </si>
   <si>
     <t>https://shopee.sg/8-IN-1-USB-C-HUB-Type-C-To-HDMI-Adapter-Type-c-To-USB-3.0-RJ45-Ethernet-Micro-SD-Card-Reader-USB-C-3.1-Data-Transfer-87W-PD-Charging-Multi-Port-HUB-Type-C-Docking-Station-i.401297909.19315708456</t>
@@ -722,7 +722,7 @@
     <t>https://cf.shopee.sg/file/c7926b742b45750253d19b54c842d758</t>
   </si>
   <si>
-    <t>niuzai.sg</t>
+    <t>Niuzai Mart</t>
   </si>
   <si>
     <t>https://shopee.sg/TNF-Fuse-Box-super-waterproof-backpack-with-laptop-compartment-export-goods-i.594893584.18443701183</t>
@@ -807,7 +807,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22120-xnkge112yalv31</t>
   </si>
   <si>
-    <t>xmartsg</t>
+    <t>XMART</t>
   </si>
   <si>
     <t>https://shopee.sg/300DPI-HD-Thermal-Printer-Mini-Bluetooth-A6-Waybill-Label-Printer-i.131332496.4751627578</t>
@@ -1083,7 +1083,7 @@
     <t>https://cf.shopee.sg/file/ce8d8ae4eb7e72579b0484907bcf9187</t>
   </si>
   <si>
-    <t>ktt12.sg</t>
+    <t>KTT12.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/Korean-style-laptop-bag-cute-embroidery-design-shockproof-suitable-for-10-11-inch-13-14-inch-15-15.6-inch-i.341987306.9762712988</t>
@@ -1134,7 +1134,7 @@
     <t>https://cf.shopee.sg/file/4f2eac1cbd7675769643493e3566c6d9</t>
   </si>
   <si>
-    <t>bluenessss.sg</t>
+    <t>Blueness Studio</t>
   </si>
   <si>
     <t>https://shopee.sg/Laptop-bag-Korean-style-cute-portable-shockproof-fluff-protection-suitable-for-10-11-inch-13-14-inch-15-15.6-inch-i.341987306.11408710090</t>
@@ -1215,7 +1215,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22110-svqi34n7eckvdf</t>
   </si>
   <si>
-    <t>spoetry.sg</t>
+    <t>Smart Storage</t>
   </si>
   <si>
     <t>https://shopee.sg/8PIN-to-SD-Card-Reader-Adapter-Smart-Digital-Camera-Card-Readers-OTG-for-Phone-i.51134277.8888120988</t>
@@ -1446,7 +1446,7 @@
     <t>Power Supply Units</t>
   </si>
   <si>
-    <t>david_m16.sg</t>
+    <t>ONE ITEM</t>
   </si>
   <si>
     <t>https://shopee.sg/Wireless-Bluetooth-Keyboard-Mouse-Set-Wireless-Keyboard-Bluetooth-Mouse-Full-Set-Wireless-Mouse-and-Keyboard-Silent-i.549252859.10284605700</t>
@@ -1511,7 +1511,7 @@
     <t>https://cf.shopee.sg/file/4387b574f3906b2f6ccf721caf30213a</t>
   </si>
   <si>
-    <t>luojistore</t>
+    <t>ELCNET STORE</t>
   </si>
   <si>
     <t>https://shopee.sg/Original-Razer-Mouse-DeathAdder-Essential-Essential-Gaming-For-PC-Laptop-Computer-Black-White--i.520130789.15306817355</t>
@@ -1556,7 +1556,7 @@
     <t>https://cf.shopee.sg/file/82995c90669097622600d0eaf6546dbd</t>
   </si>
   <si>
-    <t>contessasport</t>
+    <t>ContessaStore</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥ready-stock🔥-Wireless-Mouse-2.4Ghz-Receiver-Optical-Adjustable-Silent-led-usb-Rechargeable-for-Laptop-notebook-鼠标-i.520130789.12815045869</t>
@@ -1640,7 +1640,7 @@
     <t>https://cf.shopee.sg/file/7d72173d5e255653ba50117cec5aee3c</t>
   </si>
   <si>
-    <t>falconpev283</t>
+    <t>Falcon Pev</t>
   </si>
   <si>
     <t>https://shopee.sg/-Auspicious-Laptop-Keyboard-Bag-Cover-For-Logitech-K380-Case-Keyboard-Protective-Storage-Bag-i.289707458.20245897604</t>
@@ -1698,7 +1698,7 @@
     <t>https://cf.shopee.sg/file/7905948fd3195730ecb94467de86428d</t>
   </si>
   <si>
-    <t>allnice.sg</t>
+    <t>All-Nice Home Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Cute-Cat-Artisan-Keycaps-OEM-Profile-Compatible-or-Gateron-Cherry-MX-Switches-Mechanical-Keyboard-keycap-i.237211081.18202504405</t>
@@ -1723,7 +1723,7 @@
     <t>https://cf.shopee.sg/file/dde14a67cec083999cd0eba6c84cf7a8</t>
   </si>
   <si>
-    <t>wowking.sg</t>
+    <t>wowking｜Life Technology Digital</t>
   </si>
   <si>
     <t>https://shopee.sg/-NEW-ARRIVAL-Mini-Portable-Square-Wireless-Bluetooth-Pocket-Thermal-Printer-Android-IOS-Print-Labels-Printer-Labeller-i.21596473.17285934126</t>
@@ -1755,7 +1755,7 @@
     <t>https://cf.shopee.sg/file/c89176c61f6e90e45d94ebd22770bcaf</t>
   </si>
   <si>
-    <t>smart.shopping</t>
+    <t>Smart Shopping</t>
   </si>
   <si>
     <t>https://shopee.sg/Niimbot-D110-Label-Printer-Portable-Thermal-Label-Maker-Printer-Labeller-Maker-i.21596473.21249982124</t>
@@ -1877,7 +1877,7 @@
     <t>https://cf.shopee.sg/file/f7500e699dc64e225f93ee22fed04fb7</t>
   </si>
   <si>
-    <t>xinzhan.sg</t>
+    <t>Warm Station</t>
   </si>
   <si>
     <t>https://shopee.sg/360-Degree-Swivel-3-Modes-Anti-Splash-Water-Saving-Faucet-Sprayer-Aerator-Sink-Faucet-Filter-Nozzle-Kitchen-Universal-Tap-Head-Attachment-Bathroom-Faucet-Purifier-i.54615708.20312538726</t>
@@ -1990,7 +1990,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22120-nys1zteeb6kv54</t>
   </si>
   <si>
-    <t>y.i.s.i.n</t>
+    <t>Y.I.S.I.N</t>
   </si>
   <si>
     <t>https://shopee.sg/Mcafee-Total-Protection-Antivirus-2022-Original-10-Year-i.218198564.5483918703</t>
@@ -2029,7 +2029,7 @@
     <t>Softwares</t>
   </si>
   <si>
-    <t>chiro21</t>
+    <t>ITs Solution</t>
   </si>
   <si>
     <t>https://shopee.sg/【SG-Local-Stock】Korean-Cute-Cartoon-Mouse-Pad-Cute-Bear-Dog-Waterproof-Mousepad-i.320070742.5766743646</t>
@@ -2063,7 +2063,7 @@
     <t>https://cf.shopee.sg/file/6ddf03c836fa863710628f38d331edb2</t>
   </si>
   <si>
-    <t>simpleestreet.com</t>
+    <t>SimpleeStreet.com</t>
   </si>
   <si>
     <t>https://shopee.sg/Permatex-22058-Lubricant-Dielectric-Grease-Lubricating-Mechanical-Keyboard-Stabilizers-Stabs-i.135527190.6251168665</t>
@@ -2082,7 +2082,7 @@
     <t>https://cf.shopee.sg/file/d6fed9fe635e3dfb2d966b51c6cb5e64</t>
   </si>
   <si>
-    <t>spacekeys</t>
+    <t>Spacekeys - Mechanical Keyboard</t>
   </si>
   <si>
     <t>https://shopee.sg/-Free-Brush-Switch-Lubricant-Mechanical-Keyboard-Switches-Stabilizers-Krytox-™-205g0-105-TriboSys-™-3203-3204-i.135527190.4648512743</t>
@@ -2142,7 +2142,7 @@
     <t>https://cf.shopee.sg/file/8eda7036361a32780936803cb058e7e9</t>
   </si>
   <si>
-    <t>chenmiju2019.sg</t>
+    <t>wzh2019.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/🍃READY-STOCK🍃USB-3.0-5Gbps-SuperSpeed-4-Ports-USB-HUB-(20cm-x-60cm-x-120cm)-i.489184415.9182118098</t>
@@ -2234,7 +2234,7 @@
     <t>https://cf.shopee.sg/file/2ca1434657cda8cebb3b57525e91ffac</t>
   </si>
   <si>
-    <t>boughtnex</t>
+    <t>BOUGHTNEX</t>
   </si>
   <si>
     <t>https://shopee.sg/Great-Wave-Off-Art-Large-Size-Mouse-Pad-Computer-Japanese-Mount-Fuji-Koi-Gaming-Mousepad-Gamer-Desk-Mat-Locking-Edge-for-CS-GO-i.628365983.14221606651</t>
@@ -2322,7 +2322,7 @@
     <t>Wireless Adapters &amp; Network Cards</t>
   </si>
   <si>
-    <t>3cstore888</t>
+    <t>Roni Boutique Trading Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Toshiba-Canvio-Advance-3.0-V9-1TB-2TB-Portable-Hard-Disk-Drive-i.182919813.21937440952</t>
@@ -2356,7 +2356,7 @@
     <t>https://cf.shopee.sg/file/9532faca8b152e66a9d0c68f0df9e4b2</t>
   </si>
   <si>
-    <t>toshibastoragesg</t>
+    <t>Toshiba Storage Official Store</t>
   </si>
   <si>
     <t>https://shopee.sg/USB-HUB-Multi-Port-3.0-USB-4-Port-i.13486527.16200339957</t>
@@ -2385,7 +2385,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22110-eq7pi03kpujvdc</t>
   </si>
   <si>
-    <t>windigital</t>
+    <t>WIN Digital</t>
   </si>
   <si>
     <t>https://shopee.sg/Waterproof-Business-Laptop-Backpack-Computer-Bag-i.12480907.9446349914</t>
@@ -2406,7 +2406,7 @@
     <t>https://cf.shopee.sg/file/a9a75d94a66836fb8dedfd1dab80c07c</t>
   </si>
   <si>
-    <t>tinkerbellaz85</t>
+    <t>Simple Joys</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-LOCAL-SELLER-Displayport-DP-to-HDMI-1080P-4K-i.35062141.7947473332</t>
@@ -2436,7 +2436,7 @@
     <t>Laptop Chargers &amp; Adaptors</t>
   </si>
   <si>
-    <t>bottledsg</t>
+    <t>BottledSG</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Local-Seller-USB-WIFI-1167Mbps-Dual-Band-Adapter-i.35062141.15747750478</t>
@@ -2513,7 +2513,7 @@
     <t>Inks &amp; Toners</t>
   </si>
   <si>
-    <t>eco_logical</t>
+    <t>ECOLOGICAL</t>
   </si>
   <si>
     <t>https://shopee.sg/🇸🇬2.2🔥-Koala-Home-Wireless-Bluetooth-mute-Keyboard-Mouse-Set-Set-Rechargeable-Compatible-with-Phone-Tablet-iPad-i.785454343.20150543700</t>
@@ -2545,7 +2545,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22110-qinm30pvefkv4d</t>
   </si>
   <si>
-    <t>koalahome.sg</t>
+    <t xml:space="preserve">Koala Home Lifestyle </t>
   </si>
   <si>
     <t>https://shopee.sg/🇸🇬2.25LOWEST🔥-Koala-Home-Premium-Leather-Mousepad-Mouse-Pad-Desk-Mat-Double-Sided-Office-Desk-Mat-Mouse-Mat-Gaming-i.785454343.18307792312</t>
@@ -2692,7 +2692,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22120-15ppm65x7tkv7e</t>
   </si>
   <si>
-    <t>perfectselect</t>
+    <t>Perfect Select</t>
   </si>
   <si>
     <t>https://shopee.sg/Wooden-Monitor-stand-Rack-Laptop-Stand-Desktop-Organizer-i.478791243.12541031778</t>
@@ -2719,7 +2719,7 @@
     <t>Laptop Stands &amp; Foldable Laptop Desks</t>
   </si>
   <si>
-    <t>wondershop.sg</t>
+    <t>wondershop</t>
   </si>
   <si>
     <t>https://shopee.sg/Akko-CS-Jelly-V3-Switches-Mechanical-Keyboard-Switch-CREAM-YELLOW-BLUE-LAVENDER-JELLY-PURPLE-BLUE-BLACK-SILVER-ROSE-RED-i.415978729.17868931721</t>
@@ -2811,7 +2811,7 @@
     <t>https://cf.shopee.sg/file/e70ff0263b237df062dd8421447e9048</t>
   </si>
   <si>
-    <t>landingpad</t>
+    <t>LandingPad Custom Keyboards</t>
   </si>
   <si>
     <t>https://shopee.sg/Genesis-Laptop-Stand-Adjustable-Portable-Foldable-Aluminium-Metal-Riser-Ergonomic-for-Notebook-i.262807707.21311931803</t>
@@ -2874,7 +2874,7 @@
     <t>https://cf.shopee.sg/file/7460ff5fac1235b736d835bb50661e9b</t>
   </si>
   <si>
-    <t>apcshop.sg</t>
+    <t>Apc Computer Accessories Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Minimalist-13-14-15.6-Inch-Oxford-Laptop-Bag-Sleeve-l-Unisex-l-Hang-Bag-l-Waterproof-l-Computer-l-Durable-l-Case-i.2417589.8628644303</t>
@@ -2959,7 +2959,7 @@
     <t>https://cf.shopee.sg/file/0f4f164c2b3bd9cc218826c9d0fcf747</t>
   </si>
   <si>
-    <t>modcharms.com</t>
+    <t>Modcharms</t>
   </si>
   <si>
     <t>https://shopee.sg/(Local-Stock)-(GEBIZ-ACRA-REG)-PLA-3D-Printer-Filament-Standard-Colours-Series-1.75mm-1kg-i.182524985.8326053759</t>
@@ -2985,7 +2985,7 @@
     <t>3D Printers</t>
   </si>
   <si>
-    <t>zweedee3d</t>
+    <t>Zweedee3d</t>
   </si>
   <si>
     <t>https://shopee.sg/(VIP-Retailer)-LED-Gaming-Keyboard-with-Mechanical-Keyboard-Feel-FREE-Mouse-Splashproof-GTX300-up-to-1600-DPI-i.254321715.20466885066</t>
@@ -3035,7 +3035,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22120-gfn1befx55kveb</t>
   </si>
   <si>
-    <t>vip_retailer</t>
+    <t>VIP Retailer</t>
   </si>
   <si>
     <t>https://shopee.sg/Premium-Waterproof-Computer-Bag-Laptop-Sleeve-for-MacBook-Pro-Air-i.480420433.12038345648</t>
@@ -3068,7 +3068,7 @@
     <t>Laptop Sleeves</t>
   </si>
   <si>
-    <t>summerclub</t>
+    <t>SummerClub</t>
   </si>
   <si>
     <t>https://shopee.sg/-RECEIVE-IN-3-DAYS-USB-3.0-4-Ports-High-Speed-5Gbps-Extension-Hub-Splitter-for-Laptop-Computer-i.338563812.7174604813</t>
@@ -3111,7 +3111,7 @@
     <t>https://cf.shopee.sg/file/7f7dddafe56efd77f0ef4da4755528bb</t>
   </si>
   <si>
-    <t>tomato.singapore</t>
+    <t>Tomato SG</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Seller-Super-Slim-Wireless-Laptop-Computer-Mouse-Battery-Operated-2.4Ghz-i.338563812.5174612538</t>
@@ -3173,7 +3173,7 @@
     <t>https://cf.shopee.sg/file/cb35c3ad756576901466ae23116c6c4b</t>
   </si>
   <si>
-    <t>onlinesingapore</t>
+    <t>Online Singapore</t>
   </si>
   <si>
     <t>https://shopee.sg/Niimbot-B21-Wireless-Bluetooth-Thermal-Label-Printer-i.189166995.6175626711</t>
@@ -3263,7 +3263,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22090-k1vquublyuhve1</t>
   </si>
   <si>
-    <t>sxzbetter.sg</t>
+    <t>LycheeGamingSXZ.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/10M-15M-20M-30M-50M-Ethernet-Cable-LAN-Cable-Flat-CAT-6-Cable-Network-Cable-Gigabit-Internet-Computer-RJ45-Router-i.241947465.3643074024</t>
@@ -3290,7 +3290,7 @@
     <t>Network Cables &amp; Connectors</t>
   </si>
   <si>
-    <t>hpsales1</t>
+    <t>AceElectronics</t>
   </si>
   <si>
     <t>https://shopee.sg/Vention-Card-Reader-USB-3.0-Type-C-512GB-Fast-Transmission-2-in-1-SD-Card-Reader-TF-Card-Dual-Card-Reading-Micro-SD-TF-Easy-Read-For-laptop-Phone-OTG-i.95236751.21410021594</t>
@@ -3328,7 +3328,7 @@
     <t>https://cf.shopee.sg/file/035382a9239df2f8f43afd18221a6d89</t>
   </si>
   <si>
-    <t>vention.sg</t>
+    <t>Vention Official Store</t>
   </si>
   <si>
     <t>https://shopee.sg/COMFAST-1300Mbps-WiFi-Adapter-Dual-Band-2.4G-5.8G-Win11-Mini-Wireless-USB3.0-WiFi-Dongle-CF-812AC-i.213436201.7512686643</t>
@@ -3408,7 +3408,7 @@
     <t>Laptop Skins &amp; Covers</t>
   </si>
   <si>
-    <t>blackful.sg</t>
+    <t>&lt;Blackful&gt; Phone Accessories</t>
   </si>
   <si>
     <t>https://shopee.sg/-COMPATIBLE-Brother-TN-2480-TN2480-TN-2480-Toner-Cartridge-Brother-DR-2455-DR2455-DR-2455-Drum-Unit-i.329852619.5263643072</t>
@@ -3432,7 +3432,7 @@
     <t>https://cf.shopee.sg/file/bda38b0eaf85f94a5f54e4067a191978</t>
   </si>
   <si>
-    <t>qspire</t>
+    <t>Qspire</t>
   </si>
   <si>
     <t>https://shopee.sg/-Ready-Stock-SG-Wireless-Keyboard-Mouse-Combo-Vintage-Round-Keycaps-i.220997827.6441629901</t>
@@ -3490,7 +3490,7 @@
     <t>https://cf.shopee.sg/file/526ce3ed12147ce433088aeee06e4127</t>
   </si>
   <si>
-    <t>shavalife</t>
+    <t>SHAVALIFE</t>
   </si>
   <si>
     <t>https://shopee.sg/Korean-Style-Niche-11-Inch-Computer-13.3-15.6-Inch-Clutch-Liner-Bag-i.346434736.15222431498</t>
@@ -3535,7 +3535,7 @@
     <t>https://cf.shopee.sg/file/82408250c9e7adcf7e8b8342c5fd51be</t>
   </si>
   <si>
-    <t>ayuqi1</t>
+    <t>Ayuqi</t>
   </si>
   <si>
     <t>https://shopee.sg/Compatible-Toner-Cartridge-TN-2480-TN2480-TN-2480-for-Brother-printers-DCP-L2550DW-HL-L2375DW-MFC-L2715DW-MFC-L2750DW-T-i.236279386.7532275614</t>
@@ -3559,7 +3559,7 @@
     <t>https://cf.shopee.sg/file/62d0490c8125f54927184f01fd4053ce</t>
   </si>
   <si>
-    <t>b_a_z_a_a_r</t>
+    <t>BAZAAR</t>
   </si>
   <si>
     <t>https://shopee.sg/Ergonomic-Vertical-Wireless-Mouse-1600-DPI-USB-Optical-Computer-Mouse-5D-Gaming-Notebook-i.217949200.5414642836</t>
@@ -3618,7 +3618,7 @@
     <t>https://cf.shopee.sg/file/2b4e6cfb8267d56b34ffb20d8d7553ef</t>
   </si>
   <si>
-    <t>proplusguard.sg</t>
+    <t>Pro+ Guard SG</t>
   </si>
   <si>
     <t>https://shopee.sg/Portable-Adjustable-Black-Notebook-Foldable-Cooling-Stand-Ventilated-Lift-Raise-Computer-Bracket-Laptop-Desktop-Increase-Height-i.127249066.10144536014</t>
@@ -3739,7 +3739,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22100-mw5adse2yeiv11</t>
   </si>
   <si>
-    <t>quality.plus</t>
+    <t>QPlus</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Universal-PU-Leather-Laptop-Sleeve-with-Waterproof-and-Shockproof-Functions-for-Notebook-i.368100296.7586433816</t>
@@ -3836,7 +3836,7 @@
     <t>https://cf.shopee.sg/file/a05810a1ecf19ef2be828b6916f9a55f</t>
   </si>
   <si>
-    <t>thelifelybrand</t>
+    <t>Lifely.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/SG-Stock-Specool®-13-14-15inch-Waterproof-Notebook-Hand-Bag-Laptop-Case-Bag-Handbag-Dustproof-Fashion-i.63663065.10703421998</t>
@@ -3943,7 +3943,7 @@
     <t>https://cf.shopee.sg/file/af8858ca469c68a0d79ac7d7355d923c</t>
   </si>
   <si>
-    <t>3csglocalshop</t>
+    <t>3C SG LOCAL SHOP</t>
   </si>
   <si>
     <t>https://shopee.sg/USB-3.0-Adapter-USB-A-to-Type-C-OTG-Adapter-C-to-Micro-USB-A-Converter-for-Samsung-Xiaomi-i.890696211.19358611914</t>
@@ -4027,7 +4027,7 @@
     <t>https://cf.shopee.sg/file/2c46054f242bb93ba01ee18cd4298022</t>
   </si>
   <si>
-    <t>corro_supplies</t>
+    <t>M Shop</t>
   </si>
   <si>
     <t>https://shopee.sg/Crucial-BX500-2.5-SATA-SSD-(-120GB-240GB-480GB-500GB-1TB-2TB)-CTXXXXBX500SSD1-i.422388243.9545036795</t>
@@ -4052,7 +4052,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>crucial.sg</t>
+    <t>Crucial Official Store</t>
   </si>
   <si>
     <t>https://shopee.sg/Baseus-Micro-USB-Type-C-Adapter-OTG-Converter-Male-to-Female-Charger-Plug-Adapter-i.326528295.6462006056</t>
@@ -4088,7 +4088,7 @@
     <t>https://cf.shopee.sg/file/d9905308eb44916bad75110411ae4e42</t>
   </si>
   <si>
-    <t>baseus002.sg</t>
+    <t>Basues Flagship Store</t>
   </si>
   <si>
     <t>https://shopee.sg/(Local-Stock)-PLA-3D-Printer-Filament-Standard-Colours-Series-1.75mm-1kg-for-3D-Printing-Alt-Tab-Basic--i.91594760.2703839911</t>
@@ -4111,7 +4111,7 @@
     <t>https://cf.shopee.sg/file/c414dc93ca297a17a8ef8deacbd3af8d</t>
   </si>
   <si>
-    <t>alttabelectronics</t>
+    <t>Alt Tab Electronics &amp; 3D Printers</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Seller-Stocks!-Curved-Head-Straight-Head-Tweezers-Stainless-Steel-For-Mechanical-Keyboards-i.290965435.7244422510</t>
@@ -4203,7 +4203,7 @@
     <t>https://cf.shopee.sg/file/1d728c0e7d6d91227d39cdc8d4160b6f</t>
   </si>
   <si>
-    <t>goodfaith.sg</t>
+    <t>Mantao-earphones.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/The-Furniture-Store-Adjustable-Office-Chair-Ergonomic-Gaming-Chair-without-with-foot-rest-i.299742.4601993848</t>
@@ -4238,7 +4238,7 @@
     <t>Benches, Chairs &amp; Stools</t>
   </si>
   <si>
-    <t>bikesground</t>
+    <t>The Furniture Store</t>
   </si>
   <si>
     <t>https://shopee.sg/The-Furniture-Store-Sturdy-Clothes-Rack-Drying-Rack-Clothes-Hanger-i.299742.2222904835</t>
@@ -4295,7 +4295,7 @@
     <t>https://cf.shopee.sg/file/6fd9a431146506ea4bfe7acd662b9793</t>
   </si>
   <si>
-    <t>cyberparksg</t>
+    <t>Cyberpark</t>
   </si>
   <si>
     <t>https://shopee.sg/LED-Strip-Light-SMD-5050-RGB-LED-Light-Strip-5M-10M-20M-Fairy-Light-Waterproof-LED-Tape-Lights-with-Remote-Controller-for-Home-i.567493313.12866945589</t>
@@ -4328,7 +4328,7 @@
     <t>Lighting</t>
   </si>
   <si>
-    <t>2022fachai.sg</t>
+    <t>squid game jacket new</t>
   </si>
   <si>
     <t>https://shopee.sg/SunnySunny-Japanese-Minimalist-Style-Soft-Comforter-Premium-Cotton-Blanket-Single-Queen-King-Size-Air-Conditioning-Quilt-i.277390263.8786863720</t>
@@ -4363,7 +4363,7 @@
     <t>Blankets, Comforters &amp; Quilts</t>
   </si>
   <si>
-    <t>uranusmarket.sg</t>
+    <t>SunnySunny</t>
   </si>
   <si>
     <t>https://shopee.sg/100pcs-Rose-Petals-Flower-Girl-Toss-Fake-Silk-Petals-Artificial-Petals-For-Wedding-Confetti-Party-Event-Decorations-i.498018387.3397689550</t>
@@ -4422,7 +4422,7 @@
     <t>Labels &amp; Stickers</t>
   </si>
   <si>
-    <t>stickerpoint</t>
+    <t>Rainbow Labels</t>
   </si>
   <si>
     <t>https://shopee.sg/Nano-Tape-Double-sided-Waterproof-Strong-Adhesive-Tape-i.258452033.6833792124</t>
@@ -4443,7 +4443,7 @@
     <t>Industrial Adhesives &amp; Tapes</t>
   </si>
   <si>
-    <t>fancy202003.sg</t>
+    <t>Ailihu</t>
   </si>
   <si>
     <t>https://shopee.sg/(Buy-2-get-2-free)-Adjustable-and-detachable-jeans-buttons-nail-free-metal-buttons-clothing-sewing-clothing-accessor-i.309740850.4552408603</t>
@@ -4477,7 +4477,7 @@
     <t>Needlework</t>
   </si>
   <si>
-    <t>aishangsg.sg</t>
+    <t xml:space="preserve">China&amp;Embroidery DIY Embroidery </t>
   </si>
   <si>
     <t>https://shopee.sg/Stationery-Organizer-Desk-Organiser-✨-Drawer-type-✨-SG-Ready-Stock-i.565068251.13833125344</t>
@@ -4514,7 +4514,7 @@
     <t>Folders, Paper Organizers &amp; Accessories</t>
   </si>
   <si>
-    <t>white_sg</t>
+    <t>WhiteCollection</t>
   </si>
   <si>
     <t>https://shopee.sg/Wall-Mounted-Storage-Boxs-Remote-Control-Storage-Organizer-Case-For-Air-Conditioner-TV-Mobile-Phone-Plug-Holder-Stand-Rack-i.61595324.4259916835</t>
@@ -4546,7 +4546,7 @@
     <t>Shelves &amp; Racks</t>
   </si>
   <si>
-    <t>szkoston.sg</t>
+    <t>szkoston Shop</t>
   </si>
   <si>
     <t>https://shopee.sg/HydroFlask-Boot-Silicon-Cover-Cap-Aquaflask-Water-Bottle-Accessories-Boots-Sleeve-Paracord-Handle-Set-i.329494459.21413462442</t>
@@ -4607,7 +4607,7 @@
     <t>Jugs, Pitchers &amp; Accessories</t>
   </si>
   <si>
-    <t>selers.sg</t>
+    <t>SELERS.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/【Ready-Stock】Smart-Air-Freshener-Automatic-Aroma-Sprayer-Essential-Oil-Diffuser-Aroma-Spray-Dispenser-Aroma-Diffuser-Air-Purifier-Deodorization-Toilet-Restroom-Bedroom-Bathroom-Be-i.809624709.21167359947</t>
@@ -4714,7 +4714,7 @@
     <t>https://cf.shopee.sg/file/3dbb4e8b1674459ed48d3a45840cddf9</t>
   </si>
   <si>
-    <t>lifengent.sg</t>
+    <t>Li &amp; Feng Enterprise</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥SG-STOCK-40*60cm-Japanese-Style-Carpet-Floor-Mat-Rug-Kitchen-Bath-Mat-Carpet-Bath-Mats-i.857068188.19458919861</t>
@@ -4755,7 +4755,7 @@
     <t>Floor Mats</t>
   </si>
   <si>
-    <t>digital_creation.sg</t>
+    <t>umarcarpets</t>
   </si>
   <si>
     <t>https://shopee.sg/PaperOne-Printing-Paper-A4-Paper-A3-Paper-A5-Paper-Copy-Paper-70gsm-80gsm-100gsm-i.84204959.6644641216</t>
@@ -4789,7 +4789,7 @@
     <t>Printing &amp; Photocopy Paper</t>
   </si>
   <si>
-    <t>millionparcel</t>
+    <t>MillionParcel</t>
   </si>
   <si>
     <t>https://shopee.sg/(SG-Stock)-10pieces-128gsm-2023-Sampul-Duit-Raya-Murah-Viral-(Nurse-Floral-Mosque-Family)-Cheap-Money-Envelopes--i.39869582.22019679566</t>
@@ -4910,7 +4910,7 @@
     <t>Bedsheets, Pillowcases &amp; Bolster Cases</t>
   </si>
   <si>
-    <t>cozyhome_comfort</t>
+    <t>CozyHome Comfort</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-stock-High-Quality-Adult-Waterproof-Raincoat-【5-Size】-top-Pants-PVC-night-Reflect-Hooded-outdoor-rainwear-防水雨衣-i.472472246.10113962114</t>
@@ -5031,7 +5031,7 @@
     <t>https://cf.shopee.sg/file/2790332117c6c89d5f4eb39afff02926</t>
   </si>
   <si>
-    <t>guyshero.sg</t>
+    <t>Guyshero Official Store SG</t>
   </si>
   <si>
     <t>https://shopee.sg/Hotel-Inspired-Aroma-Reed-Diffuser-50ml-9-Scents-Available-100ml-Refill-Available-Gift-Idea-Ready-Stock-Estarz-i.290396710.9657436402</t>
@@ -5073,7 +5073,7 @@
     <t>https://cf.shopee.sg/file/sg-11134207-23020-vcbcbviuy9mv0d</t>
   </si>
   <si>
-    <t>estarzshop</t>
+    <t>E Starz Shop</t>
   </si>
   <si>
     <t>https://shopee.sg/🔥-Self-Adhesive-Power-Strip-Holder-Fixator-Power-Extension-Socket-Cord-Cable-Management-Wall-Mount-Plug-Wire-Organizer-i.499648059.9488114909</t>
@@ -5110,7 +5110,7 @@
     <t>Desk Organizers</t>
   </si>
   <si>
-    <t>feelinghome.sg</t>
+    <t>Feelinghome.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/FEELING🌈Sewer-Pipe-Pest-Control-Anti-odor-Deodorant-Silicone-Seal-Ring-Shower-Drain-Cover-Washing-Machine-Pool-Floor-Drain-Sealing-Plug-i.499648059.8086698232</t>
@@ -5183,7 +5183,7 @@
     <t>Canvases &amp; Easels</t>
   </si>
   <si>
-    <t>rainbowart</t>
+    <t>Rainbow Art</t>
   </si>
   <si>
     <t>https://shopee.sg/Anti-UV-Black-Coating-Automatic-Manual-Umbrella-Waterproof-Wind-Resistant-UV-Prevention-i.274167532.12148419679</t>
@@ -5215,7 +5215,7 @@
     <t>Umbrellas</t>
   </si>
   <si>
-    <t>bitesdlightsg</t>
+    <t>Bites D'light</t>
   </si>
   <si>
     <t>https://shopee.sg/Abraca-Dabra-Solid-Color-home-doormat-Bathroom-Non-slip-Absorbent-Soft-Memory-Foam-Mat-40x60cm-i.72567956.5533655031</t>
@@ -5242,7 +5242,7 @@
     <t>Toilet Bowls, Seats &amp; Covers</t>
   </si>
   <si>
-    <t>statesmarket.sg</t>
+    <t>Abraca Dabra</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-STOCKS-Colorful-Stackable-Plastic-Shoe-Box-Multiple-Colour-PP-Plastic-Foldable-Easy-To-Keep-i.474850985.13323692269</t>
@@ -5270,7 +5270,7 @@
     <t>Shoe Storage Boxes</t>
   </si>
   <si>
-    <t>sghome25</t>
+    <t>SG Home Deals</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Stock-Double-Wall-Insulated-Drinking-Glass-Cup-Coffee-Tea-80ML-250ML-350ML-450ML-650ML-i.347119246.6771613098</t>
@@ -5297,7 +5297,7 @@
     <t>Cups, Mugs &amp; Glasses</t>
   </si>
   <si>
-    <t>ms.tiffany_</t>
+    <t>Ms.Tiffany</t>
   </si>
   <si>
     <t>https://shopee.sg/50g-Milk-Cotton-Yarn-High-Quality-Hand-Knitting-Yarn-Soft-Warm-Baby-Wool-Yarn-i.275897983.8591247393</t>
@@ -5330,7 +5330,7 @@
     <t>https://cf.shopee.sg/file/a51c95eb8eb8f0881a1876e06e38b0a3</t>
   </si>
   <si>
-    <t>sgnotionsland.sg</t>
+    <t>Notionsland</t>
   </si>
   <si>
     <t>https://shopee.sg/⭐-Aromania-⭐-Local-Seller-Water-soluble-Oil-for-diffuser-10ml-Essential-Oil-Scented-Oil-Humidifier-Essential-Oil-i.283571173.6178131085</t>
@@ -5401,7 +5401,7 @@
     <t>Essential Oils</t>
   </si>
   <si>
-    <t>auroraaroma</t>
+    <t>Aurora Aroma</t>
   </si>
   <si>
     <t>https://shopee.sg/-SG-Stock-Creative-Mini-Plant-Potted-Green-Grass-Planted-Grass-Ecological-i.189531438.18515704452</t>
@@ -5434,7 +5434,7 @@
     <t>Plants</t>
   </si>
   <si>
-    <t>lilyshop888</t>
+    <t>CRAZY $9.9 STORE</t>
   </si>
   <si>
     <t>https://shopee.sg/2023-NEW-5Pcs-pack-Chinese-New-Year-Cartoon-Red-Packet-Red-Envelope-Year-of-Superhero-Series-红包-i.322587491.15935520089</t>
@@ -5469,7 +5469,7 @@
     <t>https://cf.shopee.sg/file/394c58c7e271012cba69d8e971831f24</t>
   </si>
   <si>
-    <t>anjilizhe.sg</t>
+    <t>Pure Living</t>
   </si>
   <si>
     <t>https://shopee.sg/100PCS-20cm-Air-Fryer-Paper-Disposable-Liner-Baking-Oilproof-Parchment-i.369852783.16200002466</t>
@@ -5507,7 +5507,7 @@
     <t>Bakewares &amp; Decorations</t>
   </si>
   <si>
-    <t>fashionweek1.sg</t>
+    <t>Muses</t>
   </si>
   <si>
     <t>https://shopee.sg/3-Pcs-Ikea-Style-Dormitory-Closet-Organizer-For-Bra-Socks-Underwear-Home-Separated-Underwear-Storage-Box-Divider-Boxes-For-SHAWL-TURBAN-hijab-Scarves-Socks-scarf-Foldable-Drawer-i.456336437.19819860007</t>
@@ -5551,7 +5551,7 @@
     <t>Wardrobe Organizers</t>
   </si>
   <si>
-    <t>storagebeauty.sg</t>
+    <t>StorageBeauty.sg</t>
   </si>
   <si>
     <t>https://shopee.sg/-Mix-Match-Jades-Automatic-Spray-Refill-Scent-Fragrance-Air-freshener-Automatic-Spray-Device-Compatible-i.264542185.3957222866</t>
@@ -5585,7 +5585,7 @@
     <t>Air Fresheners &amp; Home Fragrance</t>
   </si>
   <si>
-    <t>sgdirectshop</t>
+    <t>SG Direct Shop</t>
   </si>
   <si>
     <t>https://shopee.sg/(SG-STOCK)-Adjustable-Single-Double-Pole-Laundry-Clothes-Rack-Stand-Drying-Rack-Clothing-Portable-Hanging-with-Wheels-i.274578160.3742303573</t>
@@ -5604,7 +5604,7 @@
     <t>https://cf.shopee.sg/file/6c5ffbc858529d60b122e6e7aa7f5328</t>
   </si>
   <si>
-    <t>jhuangweng</t>
+    <t>Happy Living</t>
   </si>
   <si>
     <t>https://shopee.sg/bedsheet-set-soft-material-with-pillow-case-and-bolster-case-i.264007932.6635268625</t>
@@ -5700,7 +5700,7 @@
     <t>https://cf.shopee.sg/file/1e1e1339209a5225208c32c4055fa6b2</t>
   </si>
   <si>
-    <t>belle_maison</t>
+    <t>Belle Maison</t>
   </si>
   <si>
     <t>https://shopee.sg/3-Color-Motion-Sensor-Cabinet-Night-Light-LED-USB-Rechargeable-Lighting-Kitchen-Closet-Wardrobe-Bedroom-Bedside-Lamp-Magnetic-LED-Light-i.286481403.19049897654</t>
@@ -5738,7 +5738,7 @@
     <t>https://cf.shopee.sg/file/sg-11134201-22090-cqi4o5l95yhv40</t>
   </si>
   <si>
-    <t>lamplighting.sg</t>
+    <t>COLOFAMILY</t>
   </si>
 </sst>
 </file>
@@ -6103,8 +6103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
